--- a/Excel-BI-Excel-Challenge-412.xlsx
+++ b/Excel-BI-Excel-Challenge-412.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A5FBC3-8C1E-423E-BFB4-21DC761B91DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{F5A5FBC3-8C1E-423E-BFB4-21DC761B91DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EE7860A-ECA7-491A-91FD-3AABE20DF8D6}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="11" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>FROM:</t>
   </si>
@@ -169,6 +171,12 @@
   </si>
   <si>
     <t>His solution</t>
+  </si>
+  <si>
+    <t>My Solution</t>
+  </si>
+  <si>
+    <t>Checks out</t>
   </si>
 </sst>
 </file>
@@ -295,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +380,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -420,7 +434,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -434,7 +448,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="17"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -442,6 +455,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Calculation" xfId="16" builtinId="22" customBuiltin="1"/>
@@ -1120,7 +1135,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1412,10 +1427,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1462,22 +1477,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="14" t="str" cm="1">
+      <c r="F9" s="13" t="str" cm="1">
         <f t="array" ref="F9:G18">_xlfn.REDUCE(B9:C9,A10:A18,_xlfn.LAMBDA(_xlpm.c,_xlpm.v,_xlfn.VSTACK(_xlpm.c,_xlfn.REDUCE(_xlpm.v,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.n,_xlfn.LET(_xlpm.b,SUM(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1)^2),IF((_xlpm.b&lt;10)*_xlpm.n,_xlfn.HSTACK(_xlpm.b,_xlpm.n),IF(COUNT(_xlpm.a)&gt;1,_xlpm.a,_xlpm.b))))))))</f>
         <v>Final Digit</v>
       </c>
@@ -1653,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>999999</v>
       </c>
@@ -1676,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3078682</v>
       </c>
@@ -1697,6 +1712,329 @@
       </c>
       <c r="J18" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22:F30">_xlfn.MAP(A10:A18,_xlfn.LAMBDA(_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.x,_xlfn.SEQUENCE(LEN(_xlpm.x)),1))^2)))</f>
+        <v>36</v>
+      </c>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22:G30">_xlfn.MAP(_xlfn.ANCHORARRAY(F22),_xlfn.LAMBDA(_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.x,_xlfn.SEQUENCE(LEN(_xlpm.x)),1))^2)))</f>
+        <v>45</v>
+      </c>
+      <c r="H22" cm="1">
+        <f t="array" ref="H22:H30">_xlfn.MAP(_xlfn.ANCHORARRAY(G22),_xlfn.LAMBDA(_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.x,_xlfn.SEQUENCE(LEN(_xlpm.x)),1))^2)))</f>
+        <v>41</v>
+      </c>
+      <c r="I22" cm="1">
+        <f t="array" ref="I22:I30">_xlfn.MAP(_xlfn.ANCHORARRAY(H22),_xlfn.LAMBDA(_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.x,_xlfn.SEQUENCE(LEN(_xlpm.x)),1))^2)))</f>
+        <v>17</v>
+      </c>
+      <c r="J22" cm="1">
+        <f t="array" ref="J22:J30">_xlfn.MAP(_xlfn.ANCHORARRAY(I22),_xlfn.LAMBDA(_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.x,_xlfn.SEQUENCE(LEN(_xlpm.x)),1))^2)))</f>
+        <v>50</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22:K30">_xlfn.MAP(_xlfn.ANCHORARRAY(J22),_xlfn.LAMBDA(_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.x,_xlfn.SEQUENCE(LEN(_xlpm.x)),1))^2)))</f>
+        <v>25</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22:L30">_xlfn.MAP(_xlfn.ANCHORARRAY(K22),_xlfn.LAMBDA(_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.x,_xlfn.SEQUENCE(LEN(_xlpm.x)),1))^2)))</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>85</v>
+      </c>
+      <c r="J23">
+        <v>89</v>
+      </c>
+      <c r="K23">
+        <v>145</v>
+      </c>
+      <c r="L23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="18">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>29</v>
+      </c>
+      <c r="I24">
+        <v>85</v>
+      </c>
+      <c r="J24">
+        <v>89</v>
+      </c>
+      <c r="K24">
+        <v>145</v>
+      </c>
+      <c r="L24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>85</v>
+      </c>
+      <c r="H25">
+        <v>89</v>
+      </c>
+      <c r="I25">
+        <v>145</v>
+      </c>
+      <c r="J25">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>151</v>
+      </c>
+      <c r="G26">
+        <v>27</v>
+      </c>
+      <c r="H26">
+        <v>53</v>
+      </c>
+      <c r="I26">
+        <v>34</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>29</v>
+      </c>
+      <c r="L26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>128</v>
+      </c>
+      <c r="G27">
+        <v>69</v>
+      </c>
+      <c r="H27">
+        <v>117</v>
+      </c>
+      <c r="I27">
+        <v>51</v>
+      </c>
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>40</v>
+      </c>
+      <c r="L27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>197</v>
+      </c>
+      <c r="G28">
+        <v>131</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="I28" s="18">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>16</v>
+      </c>
+      <c r="L28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>486</v>
+      </c>
+      <c r="G29">
+        <v>116</v>
+      </c>
+      <c r="H29">
+        <v>38</v>
+      </c>
+      <c r="I29">
+        <v>73</v>
+      </c>
+      <c r="J29">
+        <v>58</v>
+      </c>
+      <c r="K29">
+        <v>89</v>
+      </c>
+      <c r="L29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>226</v>
+      </c>
+      <c r="G30">
+        <v>44</v>
+      </c>
+      <c r="H30">
+        <v>32</v>
+      </c>
+      <c r="I30">
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30" s="18">
+        <v>1</v>
+      </c>
+      <c r="L30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" cm="1">
+        <f t="array" ref="F33:F52">_xlfn.SCAN(A10,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2)))</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1889,19 +2227,15 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -1909,11 +2243,10 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
@@ -1921,19 +2254,15 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13">
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
@@ -1941,11 +2270,10 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24">
         <v>4</v>
       </c>
     </row>
@@ -1953,19 +2281,15 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13">
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
@@ -1973,11 +2297,10 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27">
         <v>6</v>
       </c>
     </row>
@@ -1985,13 +2308,13 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28">
         <v>21</v>
       </c>
     </row>

--- a/Excel-BI-Excel-Challenge-412.xlsx
+++ b/Excel-BI-Excel-Challenge-412.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{F5A5FBC3-8C1E-423E-BFB4-21DC761B91DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EE7860A-ECA7-491A-91FD-3AABE20DF8D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B426881C-401B-4930-A77E-6D0B3880FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -456,7 +456,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Calculation" xfId="16" builtinId="22" customBuiltin="1"/>
@@ -827,8 +826,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4330065" y="531495"/>
-          <a:ext cx="2106930" cy="535305"/>
+          <a:off x="4331970" y="523875"/>
+          <a:ext cx="2112645" cy="527685"/>
           <a:chOff x="10536555" y="342900"/>
           <a:chExt cx="2122170" cy="542925"/>
         </a:xfrm>
@@ -1135,7 +1134,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1427,10 +1426,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1932,109 +1931,295 @@
       <c r="K30" s="18">
         <v>1</v>
       </c>
-      <c r="L30" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F33" cm="1">
-        <f t="array" ref="F33:F52">_xlfn.SCAN(A10,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2)))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F39">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F40">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F41">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F42">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F47">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F48">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52">
-        <v>20</v>
+        <f t="array" ref="F33:G33">_xlfn.LET(_xlpm.zz,_xlfn.SCAN(A10,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2))),CHOOSE({1,2},INDEX(_xlpm.zz,_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10)),_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10),))</f>
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>13</v>
+      </c>
+      <c r="H33" t="b">
+        <f>B10=F33</f>
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <f>C10=G33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" cm="1">
+        <f t="array" ref="F34:G34">_xlfn.LET(_xlpm.zz,_xlfn.SCAN(A11,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2))),CHOOSE({1,2},INDEX(_xlpm.zz,_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10)),_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10),))</f>
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34" t="b">
+        <f t="shared" ref="H34:I34" si="0">B11=F34</f>
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" cm="1">
+        <f t="array" ref="F35:G35">_xlfn.LET(_xlpm.zz,_xlfn.SCAN(A12,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2))),CHOOSE({1,2},INDEX(_xlpm.zz,_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10)),_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10),))</f>
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <f t="shared" ref="H35:I35" si="1">B12=F35</f>
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" cm="1">
+        <f t="array" ref="F36:G36">_xlfn.LET(_xlpm.zz,_xlfn.SCAN(A13,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2))),CHOOSE({1,2},INDEX(_xlpm.zz,_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10)),_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10),))</f>
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+      <c r="H36" t="b">
+        <f t="shared" ref="H36:I36" si="2">B13=F36</f>
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37" cm="1">
+        <f t="array" ref="F37:G37">_xlfn.LET(_xlpm.zz,_xlfn.SCAN(A14,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2))),CHOOSE({1,2},INDEX(_xlpm.zz,_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10)),_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10),))</f>
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37" t="b">
+        <f t="shared" ref="H37:I37" si="3">B14=F37</f>
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38" cm="1">
+        <f t="array" ref="F38:G38">_xlfn.LET(_xlpm.zz,_xlfn.SCAN(A15,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2))),CHOOSE({1,2},INDEX(_xlpm.zz,_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10)),_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10),))</f>
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38" t="b">
+        <f t="shared" ref="H38:I38" si="4">B15=F38</f>
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" cm="1">
+        <f t="array" ref="F39:G39">_xlfn.LET(_xlpm.zz,_xlfn.SCAN(A16,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2))),CHOOSE({1,2},INDEX(_xlpm.zz,_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10)),_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10),))</f>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39" t="b">
+        <f t="shared" ref="H39:I39" si="5">B16=F39</f>
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40" cm="1">
+        <f t="array" ref="F40:G40">_xlfn.LET(_xlpm.zz,_xlfn.SCAN(A17,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2))),CHOOSE({1,2},INDEX(_xlpm.zz,_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10)),_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10),))</f>
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40" t="b">
+        <f t="shared" ref="H40:I40" si="6">B17=F40</f>
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F41" cm="1">
+        <f t="array" ref="F41:G41">_xlfn.LET(_xlpm.zz,_xlfn.SCAN(A18,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2))),CHOOSE({1,2},INDEX(_xlpm.zz,_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10)),_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10),))</f>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41" t="b">
+        <f t="shared" ref="H41:I41" si="7">B18=F41</f>
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43" t="str" cm="1">
+        <f t="array" ref="F43">_xlfn.REDUCE("",A10:A18,_xlfn.LAMBDA(_xlpm.qqq,_xlpm.zzz,_xlfn.LET(_xlpm.zz,_xlfn.SCAN(_xlpm.zzz,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2))),_xlpm.qqq&amp;INDEX(_xlpm.zz,_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10))&amp;"|"&amp;_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10))&amp;";"))</f>
+        <v>4|13;4|9;5|1;4|7;4|12;4|14;2|4;4|10;1|6;</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F45" t="str" cm="1">
+        <f t="array" ref="F45:G53">_xlfn.TEXTSPLIT(F43,"|",";",TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="G45" t="str">
+        <v>13</v>
+      </c>
+      <c r="H45" t="b" cm="1">
+        <f t="array" ref="H45:I53">B10:C18=_xlfn.ANCHORARRAY(F45)+0</f>
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <v>4</v>
+      </c>
+      <c r="G46" t="str">
+        <v>9</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+      <c r="G47" t="str">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <v>4</v>
+      </c>
+      <c r="G48" t="str">
+        <v>7</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <v>4</v>
+      </c>
+      <c r="G49" t="str">
+        <v>12</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <v>4</v>
+      </c>
+      <c r="G50" t="str">
+        <v>14</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <v>4</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <v>4</v>
+      </c>
+      <c r="G52" t="str">
+        <v>10</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <v>6</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-BI-Excel-Challenge-412.xlsx
+++ b/Excel-BI-Excel-Challenge-412.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B426881C-401B-4930-A77E-6D0B3880FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF23BE-B70D-4FBC-B450-5E5BF581E79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1134,7 +1134,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1426,10 +1426,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2219,6 +2219,148 @@
         <v>1</v>
       </c>
       <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F56" t="str" cm="1">
+        <f t="array" ref="F56:G65">_xlfn.REDUCE({"Final Digit","Iteration Number"},A10:A18,_xlfn.LAMBDA(_xlpm.vvv,_xlpm.www,_xlfn.VSTACK(_xlpm.vvv,_xlfn.LET(_xlpm.zz,_xlfn.SCAN(_xlpm.www,_xlfn.SEQUENCE(20),_xlfn.LAMBDA(_xlpm.a,_xlpm.x,SUM(TRANSPOSE(MID(_xlpm.a,_xlfn.SEQUENCE(LEN(_xlpm.a)),1))^2))),CHOOSE({1,2},INDEX(_xlpm.zz,_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10)),_xlfn.XMATCH(TRUE,_xlpm.zz&lt;10))))))</f>
+        <v>Final Digit</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Iteration Number</v>
+      </c>
+      <c r="H56" t="b" cm="1">
+        <f t="array" ref="H56:I65">B9:C18=_xlfn.ANCHORARRAY(F56)</f>
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>13</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>9</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>12</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>14</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
         <v>1</v>
       </c>
     </row>
